--- a/NformTester/NformTester/Keywordscripts/600.30.20.70_CopyAndChangePositionOfLogicalGroupUnderViews.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.70_CopyAndChangePositionOfLogicalGroupUnderViews.xlsx
@@ -4915,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I65" sqref="E65:I65"/>
+    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.30.20.70_CopyAndChangePositionOfLogicalGroupUnderViews.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.70_CopyAndChangePositionOfLogicalGroupUnderViews.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7608" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7608" uniqueCount="855">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3729,10 +3729,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocity_SingleAuto_Name$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for Rack PDU"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3779,9 +3775,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocity_SingleAuto_Name$</t>
-  </si>
-  <si>
     <t>;Add device to logical group.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3845,6 +3838,10 @@
   </si>
   <si>
     <t>LogicalGroups_tree</t>
+  </si>
+  <si>
+    <t>$NAME_Velocity_1$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4915,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="C85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4927,7 +4924,7 @@
     <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1"/>
     <col min="10" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5165,16 +5162,16 @@
         <v>823</v>
       </c>
       <c r="J8" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>824</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>825</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>826</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>827</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="11"/>
@@ -5188,10 +5185,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>828</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>829</v>
       </c>
       <c r="F9" s="19">
         <v>60</v>
@@ -5217,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -5308,7 +5305,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5947,7 +5944,7 @@
         <v>56</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -6071,7 +6068,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -6457,7 +6454,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -6535,7 +6532,7 @@
         <v>56</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I61" s="26"/>
       <c r="J61" s="26"/>
@@ -6588,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J63" s="26"/>
       <c r="K63" s="26"/>
@@ -6601,13 +6598,13 @@
         <v>63</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>637</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G64" s="26" t="s">
         <v>56</v>
@@ -6616,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J64" s="26"/>
       <c r="K64" s="26"/>
@@ -6635,7 +6632,7 @@
         <v>637</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G65" s="26" t="s">
         <v>56</v>
@@ -6643,8 +6640,8 @@
       <c r="H65" s="26">
         <v>1</v>
       </c>
-      <c r="I65" s="26" t="s">
-        <v>824</v>
+      <c r="I65" s="19" t="s">
+        <v>854</v>
       </c>
       <c r="J65" s="26">
         <f>K66-40</f>
@@ -6662,7 +6659,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E66" s="26" t="s">
         <v>637</v>
@@ -6677,7 +6674,7 @@
         <v>2</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J66" s="26"/>
       <c r="K66" s="26"/>
@@ -6690,7 +6687,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E67" s="26" t="s">
         <v>637</v>
@@ -6704,8 +6701,8 @@
       <c r="H67" s="26">
         <v>1</v>
       </c>
-      <c r="I67" s="26" t="s">
-        <v>837</v>
+      <c r="I67" s="19" t="s">
+        <v>854</v>
       </c>
       <c r="J67" s="26">
         <v>-40</v>
@@ -6816,7 +6813,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
@@ -6894,7 +6891,7 @@
         <v>56</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I75" s="26"/>
       <c r="J75" s="26"/>
@@ -6947,7 +6944,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J77" s="26"/>
       <c r="K77" s="26"/>
@@ -6972,10 +6969,10 @@
         <v>7</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J78" s="26" t="b">
         <v>0</v>
@@ -7002,10 +6999,10 @@
         <v>7</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J79" s="26" t="b">
         <v>1</v>
@@ -7056,10 +7053,10 @@
         <v>7</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J81" s="26" t="b">
         <v>1</v>
@@ -7086,10 +7083,10 @@
         <v>7</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J82" s="26" t="b">
         <v>0</v>
@@ -7140,10 +7137,10 @@
         <v>7</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J84" s="26" t="b">
         <v>0</v>
@@ -7170,10 +7167,10 @@
         <v>7</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J85" s="26" t="b">
         <v>1</v>
@@ -7306,7 +7303,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -7378,7 +7375,7 @@
         <v>19</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G94" s="19" t="s">
         <v>2</v>
@@ -7402,10 +7399,10 @@
         <v>19</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -7426,7 +7423,7 @@
         <v>19</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G96" s="19" t="s">
         <v>2</v>
@@ -7450,10 +7447,10 @@
         <v>19</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -7474,7 +7471,7 @@
         <v>19</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G98" s="19" t="s">
         <v>2</v>
@@ -7498,7 +7495,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G99" s="19" t="s">
         <v>2</v>
@@ -7522,7 +7519,7 @@
         <v>19</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G100" s="19" t="s">
         <v>5</v>
@@ -7546,19 +7543,19 @@
         <v>19</v>
       </c>
       <c r="F101" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="I101" s="19" t="s">
         <v>848</v>
       </c>
-      <c r="G101" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H101" s="19" t="s">
+      <c r="J101" s="19" t="s">
         <v>849</v>
-      </c>
-      <c r="I101" s="19" t="s">
-        <v>850</v>
-      </c>
-      <c r="J101" s="19" t="s">
-        <v>851</v>
       </c>
       <c r="K101" s="19"/>
       <c r="L101" s="19"/>
@@ -7670,7 +7667,7 @@
         <v>56</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -8032,11 +8029,11 @@
         <v>572</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G121" s="19"/>
       <c r="H121" s="19" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I121" s="12"/>
       <c r="J121" s="19"/>
@@ -8110,7 +8107,7 @@
         <v>56</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -8163,7 +8160,7 @@
         <v>2</v>
       </c>
       <c r="I126" s="26" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
